--- a/docs/具体功能与权限划分细则.xlsx
+++ b/docs/具体功能与权限划分细则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renweimin/PycharmProjects/FlaskProject/MXStoreBI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1DE2006-7519-5049-B2D7-7A18C8118F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B82843-BFAA-734C-827A-858042A25333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27400" windowHeight="16900" xr2:uid="{AEC8C524-6DD8-5C4B-B16A-0BBB126AFCF2}"/>
+    <workbookView xWindow="1400" yWindow="1100" windowWidth="27400" windowHeight="16900" xr2:uid="{AEC8C524-6DD8-5C4B-B16A-0BBB126AFCF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理组的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店组的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有门店的销售数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅能查看自己所属门店的销售数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人资料管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工档案管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以管理(增、删、改)所有人的资料，包括重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅能管理自己的个人资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅能“一次性”地创建自己的员工档案。档案创建后，无权自行修改，编辑入口按钮将将消失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以管理(增、删、改)所有的员工档案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,6 +114,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -75,9 +149,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,12 +473,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1BD992-5A14-D24F-AC42-7E1859BA0FD5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="23">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
